--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -3387,7 +3387,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3587,15 +3587,10 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3643,13 +3638,13 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Camry 3</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3691,13 +3686,13 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Silver Van</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -3728,9 +3723,22 @@
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -1024,7 +1024,7 @@
       <c r="K15" t="inlineStr">
         <is>
           <t>Driver,
-Camry 3, Equip</t>
+Silver Van, Equip</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t>Driver,
-Camry 3</t>
+Silver Van</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1759,7 +1759,7 @@
       <c r="W25" t="inlineStr">
         <is>
           <t>Driver,
-Camry 3</t>
+Silver Van</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -1843,7 +1843,7 @@
       <c r="G27" t="inlineStr">
         <is>
           <t>Driver,
-Camry 3, Equip</t>
+Silver Van, Equip</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3644,7 +3644,7 @@
       <c r="O57" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Red Camry</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3736,7 +3736,7 @@
       <c r="O59" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Red Camry</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -1777,7 +1777,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>MILE BLUFF RETAIL IN PHILLIPS RX OUTPATIENT PHARMACY, MAUSTON</t>
+          <t>MILE BLUFF  OUTPATIENT PHARMACY, MAUSTON</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2077,7 +2077,11 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Moved to new location</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">

--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -3696,7 +3696,8 @@
       <c r="O58" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Silver Van,
+Trainer</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -3740,7 +3741,8 @@
       <c r="O59" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry</t>
+Red Camry,
+Trainer</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
@@ -3779,9 +3781,22 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Brianna E</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store,
+1st Day work w/ Qiana</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3828,9 +3843,22 @@
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Sara S</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store, 
+1st Day work w/ Michael</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -2232,7 +2232,7 @@
       <c r="K33" t="inlineStr">
         <is>
           <t>Driver,
-Red Camry</t>
+Red Camry Bring 2 CK with you - in Rockford Office</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -1843,7 +1843,7 @@
       <c r="G27" t="inlineStr">
         <is>
           <t>Driver,
-Silver Van, Equip</t>
+Silver Van, Equip Leave 2 CK's in the Rockford Office</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -2143,21 +2143,9 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
@@ -2221,18 +2209,17 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry Bring 2 CK with you - in Rockford Office</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2293,15 +2280,20 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry Bring 2 CK with you - in Rockford Office</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
@@ -2373,19 +2365,15 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>w/ Sarah</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
@@ -2446,9 +2434,21 @@
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>w/ Sarah</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
@@ -2525,7 +2525,11 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Moved to new location</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
@@ -2608,11 +2612,7 @@
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
@@ -2698,7 +2698,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>MAIN ST MOBIL MART, VIROQUA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2825,7 +2825,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>726 N MAIN ST</t>
+          <t>MAIN ST MOBIL MART, VIROQUA</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2868,7 +2868,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/WjWfkbZWPYybFX1K6</t>
+          <t>726 N MAIN ST</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2915,7 +2915,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>APPROX 9:30/10:30 AM START</t>
+          <t>https://maps.app.goo.gl/WjWfkbZWPYybFX1K6</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2967,7 +2967,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>APPROX 9:30/10:30 AM START</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -3018,7 +3018,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>VERNON MEMORIAL RX, LA FARGE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3070,7 +3070,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>206 N MILL ST</t>
+          <t>VERNON MEMORIAL RX, LA FARGE</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3121,7 +3121,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cSNQZeeujqT2</t>
+          <t>206 N MILL ST</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3172,7 +3172,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:00 am at IL office</t>
+          <t>https://goo.gl/maps/cSNQZeeujqT2</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3218,7 +3218,11 @@
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:00 am at IL office</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3256,22 +3260,9 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -3318,17 +3309,18 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Driver, 1/2</t>
+          <t>Driver, 1/2
+Optima, Equip</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3380,9 +3372,21 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Driver, 1/2</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
@@ -3475,11 +3479,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>9:00 AM START</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
@@ -3528,7 +3528,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL - AT COST</t>
+          <t>9:00 AM START</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3579,7 +3579,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>CITGO, SOMONAUK</t>
+          <t>DC5-FINANCIAL - AT COST</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3630,7 +3630,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>150 E MARKET ST</t>
+          <t>CITGO, SOMONAUK</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3678,7 +3678,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/gQ3wbr7ML9W1WV938</t>
+          <t>150 E MARKET ST</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3723,7 +3723,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>*IL Meet is 7:30 am at IL office</t>
+          <t>https://maps.app.goo.gl/gQ3wbr7ML9W1WV938</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3778,7 +3778,11 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>*IL Meet is 7:30 am at IL office</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
@@ -3825,23 +3829,9 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Driver,
-Prius, 
-Equip</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
@@ -3889,15 +3879,21 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Driver,
+Prius, 
+Equip</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -3935,8 +3931,16 @@
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -2967,7 +2967,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>APPROX 9:30/10:30 AM START</t>
+          <t>APPROX 10:30/11:00 AM START</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -3395,7 +3395,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3591,10 +3591,15 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3642,13 +3647,13 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry</t>
+Silver Van</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3690,13 +3695,13 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van,
+Red Camry,
 Trainer</t>
         </is>
       </c>
@@ -3735,14 +3740,13 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Brianna E</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Red Camry,
-Trainer</t>
+          <t>@ Store,
+1st Day work w/ Qiana</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
@@ -3785,22 +3789,9 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Brianna E</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>@ Store,
-1st Day work w/ Qiana</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3833,22 +3824,9 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Sara S</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>@ Store, 
-1st Day work w/ Michael</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -2525,11 +2525,7 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Moved to new location</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>

--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -1862,7 +1862,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1972,12 +1972,13 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2023,13 +2024,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2534,12 +2534,13 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd week, work w/ Leyna</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
@@ -2618,13 +2619,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd week, work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Madison Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Madison Schedule.xlsx
@@ -2246,12 +2246,12 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -2318,13 +2318,12 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd week, work w/ Carlie</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -2398,12 +2397,13 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd week, work w/ Carlie</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -2473,13 +2473,12 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd week, work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -2551,13 +2550,13 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+3rd week, work w/ Leyna</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
@@ -2635,12 +2634,12 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -2710,12 +2709,13 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -2834,9 +2834,21 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2877,9 +2889,21 @@
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -2924,13 +2948,21 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -2977,11 +3009,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -3028,11 +3056,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>KELLEY #38, APPLEWOOD MOBIL, LOVES PARK</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3082,7 +3106,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>5542 E RIVERSIDE BLVD</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3133,7 +3157,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ogxkZD8yWLL2</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3180,7 +3204,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>KELLEY #38, APPLEWOOD MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3238,7 +3262,11 @@
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>5542 E RIVERSIDE BLVD</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3272,21 +3300,13 @@
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/ogxkZD8yWLL2</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3337,14 +3357,10 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3396,16 +3412,8 @@
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -3445,15 +3453,19 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3492,12 +3504,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3543,12 +3555,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3599,12 +3611,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3653,8 +3665,16 @@
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3702,8 +3722,16 @@
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3746,8 +3774,16 @@
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
